--- a/biology/Zoologie/Corvidae_(Sibley)/Corvidae_(Sibley).xlsx
+++ b/biology/Zoologie/Corvidae_(Sibley)/Corvidae_(Sibley).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la phylogénie de Sibley et Monroe, cette famille parfois appelée Corvidés regroupe les 125 espèces classées dans la famille des Corvidés au sens strict, mais aussi celles de nombreuses autres familles de la classification traditionnelle.
 Les corvidés sont une famille de passereaux, appartenant plus précisément au sous-ordre des passeri. Cette famille comprend notamment les corbeaux, les corneilles, les geais, les choucas, les pies et les casse-noix.
@@ -514,7 +526,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegithinidés,
 Artamidés,
@@ -565,7 +579,9 @@
           <t>Listes des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aegithina Vieillot, 1816
 Aleadryas Iredale, 1956
@@ -722,7 +738,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
